--- a/src/__tests__/sample/Book1_versionB.xlsx
+++ b/src/__tests__/sample/Book1_versionB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldeparis\Documents\dev\excelcompare\src\lib\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldeparis\Documents\dev\excel\src\__tests__\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB0182D-F23F-4D3C-B07C-F3B0F4B6908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695768C-6071-4703-A7DB-EA17AC067EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8FCB4CB-3107-44A4-81F2-B43B9665CF09}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">brown </t>
+  </si>
+  <si>
+    <t>common data</t>
   </si>
 </sst>
 </file>
@@ -422,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50233C0-6D03-4BC1-A9FC-BF7F219D0E95}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -455,11 +458,22 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -476,12 +490,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -503,7 +517,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/src/__tests__/sample/Book1_versionB.xlsx
+++ b/src/__tests__/sample/Book1_versionB.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldeparis\Documents\dev\excel\src\__tests__\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695768C-6071-4703-A7DB-EA17AC067EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000C2A9-3578-4831-9C38-25CA1D510A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8FCB4CB-3107-44A4-81F2-B43B9665CF09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C8FCB4CB-3107-44A4-81F2-B43B9665CF09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -427,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50233C0-6D03-4BC1-A9FC-BF7F219D0E95}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -528,4 +529,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681CC53-9A37-42E8-84D4-D60487FD010B}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>